--- a/Task1/Unit Tests.xlsx
+++ b/Task1/Unit Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC584C9-C384-4B3F-A9C3-EE16A21B8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB012360-0B69-4CBB-B75A-1467FC5A93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration &amp; Login" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
   <si>
     <t>Status</t>
   </si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>LeapDev_BookStore_01_005</t>
-  </si>
-  <si>
-    <t>1) User is created
-2) User is logged in
-3) User does not have book added to his collection
-4) Visit https://demoqa.com/books</t>
   </si>
   <si>
     <t>1. Registration is incomplete
@@ -402,20 +396,6 @@
   <si>
     <t>1) User is logged in  (this data should or can be mocked for the purpose of this test)
 2) Visit https://demoqa.com/profile</t>
-  </si>
-  <si>
-    <t>1. Table is opened on page 1 with 10 rows
-2. Change number of rows to "5"
-3. Click on the Next button
-4. Page 2 with different books is visible
-5. Click on the previous button
-6. Page 1 is visible
-7. In the input field delete "1" type "2" and press Enter
-8.  Page 2 is visible
-9. Navigate back to page 1
-10. Number of rows is extended to 10 and books from page 2 are visible
-11. Numbers of rows chosen has also changed
-note: this test should be repeated for all row ranges that are possible to choose</t>
   </si>
   <si>
     <t>1. Table is opened on page 1 with 5 rows
@@ -507,6 +487,30 @@
 Passoword: Mypassword1!</t>
   </si>
   <si>
+    <t>1) Visit https://demoqa.com/login
+2) User is logged in</t>
+  </si>
+  <si>
+    <t>1. Table is opened on page 1 with 10 rows chosen
+2. Change number of rows to "5"
+3. Click on the Next button
+4. Page 2 with different books is visible
+5. Click on the previous button
+6. Page 1 is visible
+7. In the input field delete "1" type "2" and press Enter
+8.  Page 2 is visible
+9. Navigate back to page 1
+10. Change number of rows to "10"
+10. Number of rows is extended to 10 and books from page 2 are visible
+11. Numbers of rows chosen has also changed
+note: this test should be repeated for all row ranges that are possible to choose</t>
+  </si>
+  <si>
+    <t>1) User is logged in
+2) User does not have book added to his collection
+3) Visit https://demoqa.com/books</t>
+  </si>
+  <si>
     <t>1. Click on Delete Account button
 2. Pop to delete all book is visible
 3. Click Cancel button
@@ -516,12 +520,10 @@
 7. Popup with delete confimation is visible
 8. Click OK
 9. User is redirected to https://demoqa.com/login
-10. In dev tools check message request DELETE; Request Url contains userId
-11. Try to login with previous credentials</t>
-  </si>
-  <si>
-    <t>1) Visit https://demoqa.com/login
-2) User is logged in</t>
+10. In dev tools check message request DELETE; Request Url contains userId</t>
+  </si>
+  <si>
+    <t>1. All popup, requests and responses are visible</t>
   </si>
 </sst>
 </file>
@@ -982,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA3BF-16DC-48B1-81C8-754652CB64B5}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1015,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1099,7 +1101,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>21</v>
@@ -1108,13 +1110,13 @@
         <v>58</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>24</v>
@@ -1136,7 +1138,7 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>57</v>
@@ -1145,19 +1147,19 @@
         <v>53</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>20</v>
@@ -1173,28 +1175,28 @@
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>20</v>
@@ -1210,28 +1212,28 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="K16" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>20</v>
@@ -1247,26 +1249,26 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>20</v>
@@ -1349,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEC7C0-EC4D-49A4-B059-650BE5AA2B13}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1475,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>36</v>
@@ -1569,7 +1571,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="218.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="231.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
@@ -1583,7 +1585,7 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>62</v>
@@ -1614,20 +1616,20 @@
         <v>46</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>20</v>
@@ -1708,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D22A965-26E4-4B09-8250-A3BAEFF592F3}">
   <dimension ref="B3:N19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1829,10 +1831,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>36</v>
@@ -1866,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>54</v>
@@ -1903,7 +1905,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>54</v>
@@ -1934,19 +1936,19 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>62</v>
@@ -1967,32 +1969,32 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L17" s="22" t="s">
         <v>20</v>
@@ -2002,32 +2004,32 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="J18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="22" t="s">
         <v>20</v>
@@ -2041,23 +2043,29 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="L19" s="22" t="s">
         <v>20</v>
       </c>

--- a/Task1/Unit Tests.xlsx
+++ b/Task1/Unit Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB012360-0B69-4CBB-B75A-1467FC5A93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE426F-7128-4761-9CC7-F3EEA26DCEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Revision date</t>
   </si>
   <si>
-    <t>LeapDev Task</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - </t>
   </si>
   <si>
@@ -108,28 +105,10 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>LeapDev_Register_01</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01_001</t>
-  </si>
-  <si>
     <t>1) Visit https://demoqa.com/books</t>
   </si>
   <si>
-    <t>LeapDev_BookStore_01_002</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01_003</t>
-  </si>
-  <si>
     <t>Search with a query</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01_004</t>
   </si>
   <si>
     <t>1. Type query into input field above the table
@@ -175,19 +154,7 @@
     <t>Add book to your collection</t>
   </si>
   <si>
-    <t>LeapDev_Profile_01</t>
-  </si>
-  <si>
     <t>Verify functionalities of the Profile Section</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_001</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_002</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_003</t>
   </si>
   <si>
     <t xml:space="preserve">1) Visit https://demoqa.com/books
@@ -217,9 +184,6 @@
 3) UserName with the same name is not created</t>
   </si>
   <si>
-    <t>LeapDev_Profile_01_005</t>
-  </si>
-  <si>
     <t>Table navigation</t>
   </si>
   <si>
@@ -230,9 +194,6 @@
   <si>
     <t>1. Pages and rows has changed correctly
 2. Page and rows indication has changed correctly</t>
-  </si>
-  <si>
-    <t>LeapDev_BookStore_01_005</t>
   </si>
   <si>
     <t>1. Registration is incomplete
@@ -268,9 +229,6 @@
 </t>
   </si>
   <si>
-    <t>LeapDev_Profile_01_004</t>
-  </si>
-  <si>
     <t>Try to login with invalid credentials</t>
   </si>
   <si>
@@ -285,13 +243,7 @@
     <t>1. User is not logged in</t>
   </si>
   <si>
-    <t>LeapDev_Register&amp;Login_01_001</t>
-  </si>
-  <si>
     <t>Register&amp;Login</t>
-  </si>
-  <si>
-    <t>LeapDev_Register&amp;Login_01_002</t>
   </si>
   <si>
     <t>1) Visit https://demoqa.com/login
@@ -310,12 +262,6 @@
   <si>
     <t>1. User is logged in
 2. All popups, requests and responses are visible</t>
-  </si>
-  <si>
-    <t>LeapDev_Register&amp;Login_01_003</t>
-  </si>
-  <si>
-    <t>LeapDev_Register&amp;Login_01_004</t>
   </si>
   <si>
     <t>Login as a valid user</t>
@@ -325,9 +271,6 @@
 2) User is created (this data should or can be mocked for the purpose of this test)
 3) User is not logged in
 </t>
-  </si>
-  <si>
-    <t>LeapDev_Register&amp;Login_01_005</t>
   </si>
   <si>
     <t>Log out</t>
@@ -416,12 +359,6 @@
   </si>
   <si>
     <t>Delete all books</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_006</t>
-  </si>
-  <si>
-    <t>LeapDev_Profile_01_007</t>
   </si>
   <si>
     <t>Delete account</t>
@@ -524,6 +461,69 @@
   </si>
   <si>
     <t>1. All popup, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>Register_01</t>
+  </si>
+  <si>
+    <t>Register&amp;Login_01_001</t>
+  </si>
+  <si>
+    <t>Register&amp;Login_01_002</t>
+  </si>
+  <si>
+    <t>Register&amp;Login_01_003</t>
+  </si>
+  <si>
+    <t>Register&amp;Login_01_004</t>
+  </si>
+  <si>
+    <t>Register&amp;Login_01_005</t>
+  </si>
+  <si>
+    <t>BookStore_01</t>
+  </si>
+  <si>
+    <t>BookStore_01_001</t>
+  </si>
+  <si>
+    <t>BookStore_01_002</t>
+  </si>
+  <si>
+    <t>BookStore_01_003</t>
+  </si>
+  <si>
+    <t>BookStore_01_004</t>
+  </si>
+  <si>
+    <t>BookStore_01_005</t>
+  </si>
+  <si>
+    <t>Profile_01</t>
+  </si>
+  <si>
+    <t>Profile_01_001</t>
+  </si>
+  <si>
+    <t>Profile_01_002</t>
+  </si>
+  <si>
+    <t>Profile_01_003</t>
+  </si>
+  <si>
+    <t>Profile_01_004</t>
+  </si>
+  <si>
+    <t>Profile_01_005</t>
+  </si>
+  <si>
+    <t>Profile_01_006</t>
+  </si>
+  <si>
+    <t>Profile_01_007</t>
+  </si>
+  <si>
+    <t>Unit Test Cases</t>
   </si>
 </sst>
 </file>
@@ -984,13 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CA3BF-16DC-48B1-81C8-754652CB64B5}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1049,45 +1049,45 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="H12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="J12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>2</v>
@@ -1095,37 +1095,37 @@
     </row>
     <row r="13" spans="2:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>1</v>
@@ -1138,31 +1138,31 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>1</v>
@@ -1175,31 +1175,31 @@
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>1</v>
@@ -1212,31 +1212,31 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>1</v>
@@ -1249,29 +1249,29 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>1</v>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBEC7C0-EC4D-49A4-B059-650BE5AA2B13}">
   <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1416,45 +1416,45 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="H12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="J12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>2</v>
@@ -1462,37 +1462,37 @@
     </row>
     <row r="13" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="I13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="J13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>1</v>
@@ -1505,29 +1505,29 @@
       <c r="B14" s="9"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L14" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>1</v>
@@ -1540,29 +1540,29 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L15" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>1</v>
@@ -1575,29 +1575,29 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="18" t="s">
         <v>1</v>
@@ -1610,29 +1610,29 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="12" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="18" t="s">
         <v>1</v>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D22A965-26E4-4B09-8250-A3BAEFF592F3}">
   <dimension ref="B3:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1778,40 +1778,40 @@
     </row>
     <row r="12" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="H12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="J12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>2</v>
@@ -1819,37 +1819,37 @@
     </row>
     <row r="13" spans="2:14" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>1</v>
@@ -1862,31 +1862,31 @@
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="M14" s="18" t="s">
         <v>1</v>
@@ -1899,31 +1899,31 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L15" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>1</v>
@@ -1936,31 +1936,31 @@
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="18" t="s">
         <v>1</v>
@@ -1973,31 +1973,31 @@
       <c r="B17" s="9"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="11">
@@ -2008,31 +2008,31 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="9" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="11">
@@ -2043,31 +2043,31 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="11">
